--- a/storage/app/iprs/2/week_3.xlsx
+++ b/storage/app/iprs/2/week_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B2C247-8B97-4E4C-A51B-52AD3F2F2B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2898488F-0B4C-4F85-A32F-8FD7CF9BE352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,10 @@
   <dimension ref="A1:AML23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
